--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onewri.sharepoint.com/sites/traccity/Shared Documents/HK 2050 is now/InputData FOR HONG KONG/UPDATE InputData for Hong Kong/InputData/elec/BGDPbES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_65D4526220AE7753AB089C15CCEAF8F650CDBC4A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CFAC0132-27EA-4F45-8BDA-68016D7516E5}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Notes:</t>
   </si>
@@ -96,11 +87,23 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,23 +243,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -289,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,10 +453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -540,15 +512,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -556,7 +526,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -967,147 +940,147 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -1115,147 +1088,147 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2151,146 +2124,147 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f>B12+0.02</f>
-        <v>0.22</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:G12" si="3">C12+0.02</f>
-        <v>0.24</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>0.26</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.45</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f>G12+0.05</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f>H12+0.05</f>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f>I12+0.05</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K12">
-        <f>$J12</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:AK12" si="4">$J12</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2589,30 +2563,352 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2846,31 +3142,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88FF062F-E247-4447-ACB4-C14AC0E21DBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54C0AC23-0D21-4F93-A70F-1E30BDEFD778}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FC6D1D-05E5-4CD2-B9B1-FB26A277944F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16AC016-4C6A-4C6F-AE41-1093A6C91AD9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF9B3E9-8B5B-41D9-BC12-0579146FB234}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E293DF28-3E81-4C76-9651-650AAB862843}"/>
 </file>
--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E3D8112CBAFE5D4DEF1EB10786DE78389EB1D064" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1762321-1155-483D-B7CD-943329B9EE4B}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,10 +496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,13 +557,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1088,147 +1135,147 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -3161,13 +3208,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54C0AC23-0D21-4F93-A70F-1E30BDEFD778}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54C0AC23-0D21-4F93-A70F-1E30BDEFD778}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16AC016-4C6A-4C6F-AE41-1093A6C91AD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16AC016-4C6A-4C6F-AE41-1093A6C91AD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E293DF28-3E81-4C76-9651-650AAB862843}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E293DF28-3E81-4C76-9651-650AAB862843}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>